--- a/raw_links.xlsx
+++ b/raw_links.xlsx
@@ -1,28 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moyasi\Documents\Data-Entry\Web-Scrapping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0985C1F8-53A6-4B34-B05E-AE76B4CD4E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>import_links</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cjl-lesiure-vehicles-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/cmc-reimo</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/devon-conversions-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/dreamer</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/ecowagon</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/elddis/elddis</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/erwin-hymer-group-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/etrusco/etrusco</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/globecar</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/hillside-leisure-uk-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/ih-motorhomes-ltd/ih-motorhomes-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/jerba-campervans-ltd</t>
   </si>
   <si>
     <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
@@ -58,7 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,12 +110,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF1155cc"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -98,31 +140,31 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </bottom>
       <diagonal/>
     </border>
@@ -130,26 +172,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -160,10 +205,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -201,69 +246,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -287,54 +334,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -344,7 +390,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -353,7 +399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,7 +408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -370,10 +416,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -402,7 +448,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -415,13 +461,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -439,80 +484,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" style="4" width="25.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="51.75" customFormat="1" s="2">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="29.25" customFormat="1" s="2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="40.5" customFormat="1" s="2">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/raw_links.xlsx
+++ b/raw_links.xlsx
@@ -1,43 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moyasi\Documents\Data-Entry\Web-Scrapping\Web-Data-Scrapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEFAB9D-F8CF-4AB3-8C0C-575B6EBA6A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="3312" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>import_links</t>
   </si>
   <si>
-    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cjl-lesiure-vehicles-ltd</t>
-  </si>
-  <si>
-    <t>https://mcshow.co.uk/exhibitor-list/cmc-reimo</t>
+    <t>https://mcshow.co.uk/exhibitor-list/tingdene-parks-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/adria</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/auto-sleepers-group</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/auto-trail-vr-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/bailey-of-bristol</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/brownhills-motorhomes-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/burstner/burstner</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/carthago-motorhomes</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/chausson</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/coachbuilt-gb-ltd</t>
   </si>
   <si>
     <t>https://mcshow.co.uk/exhibitor-list/coachman-caravan-company-ltd</t>
   </si>
   <si>
+    <t>https://mcshow.co.uk/couplands-worksop-louth/couplands-worksop-louth</t>
+  </si>
+  <si>
     <t>https://mcshow.co.uk/dethleffs/dethleffs</t>
   </si>
   <si>
-    <t>https://mcshow.co.uk/exhibitor-list/devon-conversions-ltd</t>
-  </si>
-  <si>
-    <t>https://mcshow.co.uk/exhibitor-list/dreamer</t>
-  </si>
-  <si>
-    <t>https://mcshow.co.uk/exhibitor-list/ecowagon</t>
+    <t>https://mcshow.co.uk/exhibitor-list/don-amott-caravans-motorhomes</t>
   </si>
   <si>
     <t>https://mcshow.co.uk/elddis/elddis</t>
@@ -49,56 +76,490 @@
     <t>https://mcshow.co.uk/etrusco/etrusco</t>
   </si>
   <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/eura-mobil</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/fleurette-florium/fleurette-florium</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/frankia</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/giottiline/giottiline</t>
+  </si>
+  <si>
     <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/globe-traveller</t>
   </si>
   <si>
-    <t>https://mcshow.co.uk/exhibitor-list/globecar</t>
-  </si>
-  <si>
-    <t>https://mcshow.co.uk/exhibitor-list/hillside-leisure-uk-ltd</t>
-  </si>
-  <si>
-    <t>https://mcshow.co.uk/ih-motorhomes-ltd/ih-motorhomes-ltd</t>
-  </si>
-  <si>
-    <t>https://mcshow.co.uk/exhibitor-list/jerba-campervans-ltd</t>
+    <t>https://mcshow.co.uk/exhibitor-list/grantham-caravans</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/hobby-gb-ireland</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/hymer-eriba/hymer-eriba</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/itineo</t>
   </si>
   <si>
     <t>https://mcshow.co.uk/joa-camp/joa-camp</t>
   </si>
   <si>
-    <t>https://mcshow.co.uk/kaktus-adventure-vans-ltd/kaktus-adventure-vans-ltd</t>
-  </si>
-  <si>
     <t>https://mcshow.co.uk/exhibitor-list/knaus-weinsberg</t>
   </si>
   <si>
     <t>https://mcshow.co.uk/laika/laika</t>
   </si>
   <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/le-voyager</t>
+  </si>
+  <si>
     <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/lowdhams</t>
   </si>
   <si>
     <t>https://mcshow.co.uk/exhibitor-list/malibu-gmbh-kg-co</t>
   </si>
   <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/malibu-</t>
+  </si>
+  <si>
     <t>https://mcshow.co.uk/marquis-motorhomes-caravans/marquis-motorhomes-caravans</t>
   </si>
   <si>
-    <t>https://mcshow.co.uk/mega-mobil-camper-vans/mega-mobil-camper-vans</t>
+    <t>https://mcshow.co.uk/mini-free-style/mini-free-style</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/morello</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/motorhomes-caravans-ltd/motorhomes-caravans-ltd</t>
   </si>
   <si>
     <t>https://mcshow.co.uk/exhibitor-list/moto-trek-ltd</t>
   </si>
   <si>
-    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/murvi-motorcaravans-ltd</t>
+    <t>https://mcshow.co.uk/panama/panama</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/pilote</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/preston-caravans-motorhomes-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/rapido</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/richard-baldwin-motorhomes-llp</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/rimor</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/rollerteam</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/spinney-motorhomes-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/swift-group-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/wandahome-south-cave</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/alde-international-uk</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/e-p-hydraulics-uk-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/al-ko-kober-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/amplo/amplo</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/bartolacci-design/bartolacci-design</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/bilstein/bilstein</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/e-t-riddiough/e-t-riddiough</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exglo-uk/exglo-uk</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/grove-products-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/leisure-vehicle-services-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/powrtouch-caravan-movers</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/propex-heating-and-leisure-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/reimo-gmbh</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/scan-terieur-limited</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/sky-up-s-r-l/sky-up-s-r-l</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/towtal</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/truma-limited</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/vb-airsuspension-uk-ltd/vb-airsuspension-uk-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/verendus-systems/verendus-systems</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/wallas-uk</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/webasto</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/whale-mastervolt/whale-mastervolt</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/camperlands-ltd/</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/opus-camper/</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/pennine-outdoor-leisure-ltd/</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/venter-trailers-uk-ltd/</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/venter-trailers-uk-ltd/venter-trailers-uk-ltd/</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/acceo</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/ad-gifts-gb/ad-gifts-gb</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/ahmeds-leathers-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/alzheimer-s-society/alzheimer-s-society</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/golden-curl/golden-curl</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/approved-workshop-scheme-aws/approved-workshop-scheme-aws</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-flavours-brownie/the-flavours-brownie</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/auto-finance-online/auto-finance-online</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/autoglym</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/beckford-s-rum</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/bella-duke/bella-duke</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/berghoff-worldwide-uk</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/berghoff-x5-handheld-food-processor</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/dogs-trust/dogs-trust</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/brit-stops</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/brompton-bicyles/brompton-bicyles</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/butternut-box/butternut-box</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/camperlands-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-camping-caravanning-club/the-camping-caravanning-club</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-caravan-motorhome-club/the-caravan-motorhome-club</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/caravan-finder/caravan-finder</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/caravan-guard-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/celtic-spirit-co</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/cl9ud</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/conservatory-insulations/conservatory-insulations</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/cris/cris</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/crumbs-away-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/steprightorthotics</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/davinci-furniture-limited</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/ddipp/ddipp</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/diamondbrite</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/ds-accessories/ds-accessories</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/eden-garden-equipment/eden-garden-equipment</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/estarli/estarli</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/renapur-/renapur-</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/eurotherapy</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/flapjackery-ltd/flapjackery-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/garden-exteriors-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/ducksoup-cornish-made</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/green-chef/green-chef</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/arkay-sales/arkay-sales</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/cyba-shield/cyba-shield</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/harbour-hounds-ltd/harbour-hounds-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/croci-collective-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/hot-tubs-living</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/isuzu-uk-ltd/isuzu-uk-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/jofli-bear</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/kin-toffee-vodka</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/luggie-scooters/luggie-scooters</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/macmillan-cancer-support</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/magic-knife</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/magnetic-therapy</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/mary-s-cupcakes/mary-s-cupcakes</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/maxburn-fitness-plate</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/mcea-ltd-motorhome-caravan-engineers</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/mckay-pet-supplies</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/merlin-2-1-vacuum</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/mgr-retail-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/mirider</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/motorhome-direct/motorhome-direct</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/motorhome-matt-podcast/motorhome-matt-podcast</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/adjustamatic-beds/adjustamatic-beds</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/nova-uk/nova-uk</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/opus-camper</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/pawdaw-of-london-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/pennine-outdoor-leisure-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/plantlife</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/eternal-skincare/eternal-skincare-0</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/revive</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/roodog-ebikes-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/rose-cottage-drinks/rose-cottage-drinks</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/rspb/rspb</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/sbp-health</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/scarflace-by-primrose-c/scarflace-by-primrose-c</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/shawbury-wine</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/skechers-shoes-by-comfort-gear</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/sleepmaster-therapy-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/stretch-seat</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/sure-clinic</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/tails-com/tails-com</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-great-british-cheese-compnay/the-great-british-cheese-compnay</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-happy-caravanner/the-happy-caravanner</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-insurance-emporium/the-insurance-emporium</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/the-mulberry-silk-duvet</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/plan-your-visit/exhibitor-list-full/the-nomad-s-kitchen-</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-orthotic-works/the-orthotic-works</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/the-outdoor-guide-foundation/the-outdoor-guide-foundation</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/tidal-robes/tidal-robes</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/stretchy-lids</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/towcheck/towcheck</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/turmeric-blend</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/valenette</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/venter-trailers-uk-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/venter-trailers-uk-ltd/venter-trailers-uk-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/verisure/verisure</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/vinchip/vinchip</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/vinity-wines-ltd/vinity-wines-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/warwickshire-clothing</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/white-hawk-products-ltd/white-hawk-products-ltd</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/wineomania/wineomania</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/exhibitor-list/wwf</t>
+  </si>
+  <si>
+    <t>https://mcshow.co.uk/wyre-forest-books/wyre-forest-books</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +578,7 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF1155cc"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -155,16 +616,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,29 +633,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -205,10 +666,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -246,71 +707,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,7 +799,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -361,11 +822,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -374,13 +835,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -390,7 +851,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -399,7 +860,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -408,7 +869,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -416,10 +877,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -484,147 +945,909 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A178"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A178"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="2" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="4" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="5" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="6" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="7" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="8" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="9" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="10" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="11" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="12" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="13" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="14" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="15" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="16" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="17" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="18" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="19" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="20" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="21" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="22" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="51.75" customFormat="1" s="2">
+    <row r="23" spans="1:1" s="2" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="24" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="29.25" customFormat="1" s="2">
+    <row r="25" spans="1:1" s="2" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="40.5" customFormat="1" s="2">
+    <row r="26" spans="1:1" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
